--- a/Bot_screening/cumulative_changes_forward_6.xlsx
+++ b/Bot_screening/cumulative_changes_forward_6.xlsx
@@ -38,1717 +38,1717 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001324AA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006ABB09"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0015640C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001ED987"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AA5B9E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00807DD6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9FB1D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00880BC4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0002BF86"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007DC087"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0053BDB4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00064968"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0021C35C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00777991"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009D3727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00385D6D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001E0191"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0072C268"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A5B82E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BB6C14"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00091B50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0031CB3C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001B5F3D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0097901A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003E7586"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002678F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BD4C54"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0024D2D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FB97B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CEAC6C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000D223D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0048B517"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0030DCDE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003F58BF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EE9180"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C2E34B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0059DB63"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006AA305"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002CFC32"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001FAF1F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BA38F9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00011A73"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0051F806"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00656496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00933A89"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007AAE6A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000B6CBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0044E984"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006C6E36"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EA84B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006E6D58"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B95266"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00661BF9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0090262A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F73231"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A17C39"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00670CFD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003D1608"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002B7529"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002AF132"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D488D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00009489"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F068E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2D3B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F491B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008AEA7B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C7216A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005594A7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035059B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004BF4DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000C41E0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008A8235"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2DBFC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BC6F6E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0099992B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCB2F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E21CF4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0068839C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0049EFA0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EBAB8F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F6010E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00985FD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0082F134"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00331E8B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001ADDBB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F0B859"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7F9BD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00574838"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C681DE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007496EE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009181FC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCE075"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003B1619"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0008B34D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A4AEAF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F84ACE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0075A3FB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F18F1C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A50834"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00791BE7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EF86BA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007AF5D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B9F19A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87EC0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004E0D7D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00540F09"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B78379"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CFF34A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AE389A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009B654B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008AA98E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D201BD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00857559"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0040FEDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008438EC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFDDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CB82FB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004A0545"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EADCF0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000E32EB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005FB3FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009C0B97"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0029B0EB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A1116F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00206D0E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CE1E92"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001A0637"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBCCBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF6093"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007E543C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0040103F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D7933D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003B1091"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D7A945"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F61022"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A85D8A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00169B47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A29BDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002DB5E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003C9D84"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002D2C90"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000695DD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6D6F5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ED35C7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F6DEF0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007BEA58"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008FE707"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005A6778"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006F8308"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00603787"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AE5595"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005A90D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008CDDBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009B0D3F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000059EC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9A377"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BA8CAB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002F294F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00317D00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F6A7D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0045F509"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0009AC3D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006A874A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ACD101"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0096049F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0040CACB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00040FB4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDCE44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF341F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006EC174"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0071DB76"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FD61C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001A090F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006A8EDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A999D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00021C61"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DEEF7E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008E7DA5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EDF235"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B82F05"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6E7F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EB56A9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004504A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007B1106"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C935FC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00062FF3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007984F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00462A7E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009A40EB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CF1981"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007FD84C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0062125F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D774D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007530D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0007D75E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B64EEC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0033C9C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AD8BB6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006306D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007733A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0099115A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0A291"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000E8D99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008EC033"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00195CA2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CBCEE4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009066B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047793E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007DCF32"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0075F8B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005C1211"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0D475"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A9A7D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0090F5F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000F3872"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004FD99B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D50EEA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0014249D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E855FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A79083"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0055C6F5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007C5FBB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0083BBB2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00462082"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A86561"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003A8ADC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A73A68"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00303592"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C99746"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAFA0B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001A91F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F2378D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0079D8FB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D4CB99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0041CD46"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007A08C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EFF1ED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006E9E42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBA0A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0012F0E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00296BE0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008BDEDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EE79F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CA5CCF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D77BFE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005FBB3F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0011D3F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00411252"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E1331A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006BF36E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A376D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0060E149"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00561F62"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00859351"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ECD204"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001AC652"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008B68DD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F2178B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00000029"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00569972"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0065AA9A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BFF02A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CB4328"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008E93BF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00177FF4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006264BA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004FBB7C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00500C4C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0090EBD4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002D039D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C60668"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001A6E87"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005EB918"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004F85D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006C03C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00946876"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0047FBB6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EAB525"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0084AB54"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A01B76"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D781E2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C08A8A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D50913"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E92782"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0043BF44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E950D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AAF1AA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F90201"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00251554"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00043C15"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B723E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00146C60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000355EC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B1DB7E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00320F2B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0036AD39"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0019E31C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6DF8A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CBF5D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0084FF35"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B85631"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00382096"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007DF0E4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AF23F4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DAD345"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00606AC6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F896F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00767345"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0065C25F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035233A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00056E7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2C0C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00931DAA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0099D00B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F613A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DD7557"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002AC508"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF5F76"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BB004C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EC3CBA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00880BA5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006E7D32"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E7C710"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D85407"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00235B78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FD4C9F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006C2B98"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DA85C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006543E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000989B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009C5B55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0052A920"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DAFF38"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00510E19"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005599BC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00929670"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00699C7C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00768C82"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0018921F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000F02B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00240F11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0006B16E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0078A618"/>
+        <fgColor rgb="000B54DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EDCC74"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003428E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009FFB27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007C5723"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00655482"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C3C387"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009F6701"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0031BF1C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0ACA8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00010E57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000169CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFB366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0029F351"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFC4F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006495E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007EA119"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00114BAF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004F6051"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003C1301"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00683334"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003EC4FE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0074CBE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00256117"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AF7047"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B8F98F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D01C10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B507B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0033F5D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0068A6CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00996149"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C86FCD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C3EFEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00977A93"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00067546"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B7B545"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A6EAC4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003EF6A7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1613C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004883FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00633486"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00164215"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C2C0D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9391"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007DABA3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00249421"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B37370"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00810C6E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C205E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBE6F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0007C913"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0086C6CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0066BC02"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A35A8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DD7B1B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0058E2AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0026975D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B240DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002816DF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0077F7F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003A92C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0015CFA7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00831741"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001AD498"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006C836A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00776B8E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F84B35"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0069FEDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0025204B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E25DD4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A949E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009F6217"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D79065"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00343BA1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BE090B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5158D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008D8E82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A6EF16"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00276FA7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B98DB9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035101D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098AFC6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006D8113"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006369A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0010C571"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005E8B01"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001161E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCD5C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005238DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000C4FEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0075724F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F78F07"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DE936E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A05581"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DF145D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0C235"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2AA08"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004464E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ABC699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00362931"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003AF921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C3BC5B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BD55A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C38E2D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC99A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C00B85"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5A9CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A90420"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003482A2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0077D961"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005B4CDE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0049BFC1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C08972"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008FB042"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0033C903"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0048F552"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0080042F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003F4384"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0086572D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00532DD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AF30D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0096B400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000899B8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0059E83E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E13183"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00599B1B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002CDD67"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00641E0C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DE418B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001CC423"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAA77A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7A287"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00416249"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A83D12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC92F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005BF620"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FE5110"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003EE4C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0009BFC4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CA6924"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E345E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0006E0FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F328F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0079877E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CB95BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B928C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001E8BC0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0049B644"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F20798"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00724177"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00241ECA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B765C6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00734D22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F21D9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001062B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BB6D1A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E290D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008A42D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004F9FFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7856E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00076264"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C96BD4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0048B011"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002E6260"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F664AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009158E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0091AFD8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00263ADB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007A67BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7E2C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F76D8C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004F4AAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002D9F56"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0042C2BB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006AAD82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003F9B1D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ED5529"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBDF06"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6BFED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0044CF90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004B65E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0050F622"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EE49BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FA373D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAB8F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CEBE7A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C5D6EB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005D6B28"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003F308D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0031BD5B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00905044"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0B9B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008EED1E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BD2B73"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FE0C3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001112D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007A69B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C5AAD0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ACD067"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005CA2D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00767A32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0016CACD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008A449A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0082B6C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0027E664"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099461E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008FDDA4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DB3135"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4736E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000AD014"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009CB883"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003111F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E32347"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004F5AAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00132BFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBA87F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00463B65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A8BEC7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00165253"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008A8666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0068870F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0093084A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EB558F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000DB187"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FEFF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00444861"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C9CC60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002E3E5A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B66815"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006991A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00967B01"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006DC190"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008E7B4C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0070F85D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE7FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000767C2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001FAF02"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004CC0A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A23627"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00170BA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A52177"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00807538"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B51F84"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004D5EE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDE95B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0036925E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00318412"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00142396"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005D7753"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00519392"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00211051"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008CF3B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00955AA5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005F25D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AE5161"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00954A4B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0097DE50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00846821"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBAFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002AC292"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004CEDB5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0058BF48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00322BCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005513A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B6A62C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BAF0F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0016E750"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005D6F81"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009E108D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9D8BA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002D8AE7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0061068E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000F451E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EFCACC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B96008"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084BB5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00077F1C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0079841D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003AC3F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001263ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000F33DF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F80989"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00419D3A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F16840"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0046693B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008E00C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009B5A30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FF8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00650D2D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A2327E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C65368"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000A5A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003E4AF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5E74C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00673823"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004C2D21"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCBB51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002E6184"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005AA82A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8F29A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9EDBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003779D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00065E02"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000FA489"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0054EC53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005AD67B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00352447"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00060974"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CB0EF2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003B8365"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0093BCF9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0006C4DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001F58D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6AB63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002B5F2F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009F153E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00760A9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008B4D55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0032FAC6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00713A02"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0002684E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00837A9D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004C65EB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005C98C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E09E3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CA459E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0008842A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B13CCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002D3064"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000D60D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009B6053"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007E703A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003A0DB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B82513"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0008A0C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005B61F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00632C6E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009217B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0022972F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0022DC4D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006A8CCA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CE0A68"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00054D90"/>
       </patternFill>
     </fill>
   </fills>
